--- a/biology/Médecine/Signe_de_Chvostek/Signe_de_Chvostek.xlsx
+++ b/biology/Médecine/Signe_de_Chvostek/Signe_de_Chvostek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le signe de Chvostek appelé également signe du facial, a longtemps été considéré comme propre à la spasmophilie, mais également significatif d’une carence en calcium, d'une carence en magnésium[1] ou de tétanie. Il se traduit par une contraction de la joue et de la partie médiane de la lèvre supérieure, en réponse à la percussion par le marteau à réflexes du médecin. La zone à percuter se situe sur le milieu de la ligne située entre le lobule de l’oreille et la commissure labiale (coin de la bouche).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe de Chvostek appelé également signe du facial, a longtemps été considéré comme propre à la spasmophilie, mais également significatif d’une carence en calcium, d'une carence en magnésium ou de tétanie. Il se traduit par une contraction de la joue et de la partie médiane de la lèvre supérieure, en réponse à la percussion par le marteau à réflexes du médecin. La zone à percuter se situe sur le milieu de la ligne située entre le lobule de l’oreille et la commissure labiale (coin de la bouche).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décrit en 1876 par 
 František Chvostek (de)
